--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il4-Il13ra2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il4-Il13ra2.xlsx
@@ -537,28 +537,28 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9334919999999999</v>
+        <v>0.9458723333333334</v>
       </c>
       <c r="H2">
-        <v>2.800476</v>
+        <v>2.837617</v>
       </c>
       <c r="I2">
-        <v>0.209095668602663</v>
+        <v>0.1873686327665471</v>
       </c>
       <c r="J2">
-        <v>0.209095668602663</v>
+        <v>0.1873686327665471</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2434796666666667</v>
+        <v>0.6124329999999999</v>
       </c>
       <c r="N2">
-        <v>0.7304390000000001</v>
+        <v>1.837299</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -567,16 +567,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.227286320996</v>
+        <v>0.5792834307203333</v>
       </c>
       <c r="R2">
-        <v>2.045576888964</v>
+        <v>5.213550876483</v>
       </c>
       <c r="S2">
-        <v>0.209095668602663</v>
+        <v>0.1873686327665471</v>
       </c>
       <c r="T2">
-        <v>0.209095668602663</v>
+        <v>0.1873686327665471</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,22 +605,22 @@
         <v>5.893002</v>
       </c>
       <c r="I3">
-        <v>0.4399970552387631</v>
+        <v>0.3891165466060174</v>
       </c>
       <c r="J3">
-        <v>0.4399970552387631</v>
+        <v>0.3891165466060174</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.2434796666666667</v>
+        <v>0.6124329999999999</v>
       </c>
       <c r="N3">
-        <v>0.7304390000000001</v>
+        <v>1.837299</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.4782753875420001</v>
+        <v>1.203022964622</v>
       </c>
       <c r="R3">
-        <v>4.304478487878001</v>
+        <v>10.827206681598</v>
       </c>
       <c r="S3">
-        <v>0.4399970552387631</v>
+        <v>0.3891165466060174</v>
       </c>
       <c r="T3">
-        <v>0.4399970552387631</v>
+        <v>0.3891165466060174</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,28 +661,28 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.413418666666667</v>
+        <v>1.499502333333333</v>
       </c>
       <c r="H4">
-        <v>4.240256</v>
+        <v>4.498507</v>
       </c>
       <c r="I4">
-        <v>0.3165958799027214</v>
+        <v>0.2970376573303378</v>
       </c>
       <c r="J4">
-        <v>0.3165958799027214</v>
+        <v>0.2970376573303378</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2434796666666667</v>
+        <v>0.6124329999999999</v>
       </c>
       <c r="N4">
-        <v>0.7304390000000001</v>
+        <v>1.837299</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -691,16 +691,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.3441387058204444</v>
+        <v>0.9183447125103331</v>
       </c>
       <c r="R4">
-        <v>3.097248352384</v>
+        <v>8.265102412592999</v>
       </c>
       <c r="S4">
-        <v>0.3165958799027214</v>
+        <v>0.2970376573303378</v>
       </c>
       <c r="T4">
-        <v>0.3165958799027214</v>
+        <v>0.2970376573303378</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,34 +717,34 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1531806666666667</v>
+        <v>0.6384806666666667</v>
       </c>
       <c r="H5">
-        <v>0.459542</v>
+        <v>1.915442</v>
       </c>
       <c r="I5">
-        <v>0.03431139625585257</v>
+        <v>0.1264771632970977</v>
       </c>
       <c r="J5">
-        <v>0.03431139625585257</v>
+        <v>0.1264771632970977</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2434796666666667</v>
+        <v>0.6124329999999999</v>
       </c>
       <c r="N5">
-        <v>0.7304390000000001</v>
+        <v>1.837299</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -753,16 +753,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.03729637765977778</v>
+        <v>0.3910266301286666</v>
       </c>
       <c r="R5">
-        <v>0.335667398938</v>
+        <v>3.519239671158</v>
       </c>
       <c r="S5">
-        <v>0.03431139625585257</v>
+        <v>0.1264771632970977</v>
       </c>
       <c r="T5">
-        <v>0.03431139625585257</v>
+        <v>0.1264771632970977</v>
       </c>
     </row>
   </sheetData>
